--- a/Template/Excel/Example.xlsx
+++ b/Template/Excel/Example.xlsx
@@ -10,6 +10,9 @@
     <sheet name="VHG Mono (Main)" sheetId="1" r:id="rId1"/>
     <sheet name="DO NOT MODIFY!" sheetId="5" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -538,6 +541,14 @@
   </si>
   <si>
     <t>G8 (127)</t>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -684,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,6 +759,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -760,6 +774,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sample"/>
+      <sheetName val="DO NOT MODIFY!"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1049,13 +1078,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1064,12 +1093,13 @@
     <col min="2" max="2" width="5.75" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.625" style="20" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="8" width="9.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="50.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="4" customWidth="1"/>
+    <col min="7" max="9" width="9.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,23 +1112,26 @@
       <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -1107,13 +1140,14 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="6"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1126,17 +1160,20 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="6">
-        <v>120</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6">
+        <v>120</v>
+      </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="6"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1149,17 +1186,20 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="6">
-        <v>120</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6">
+        <v>120</v>
+      </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="6"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1172,17 +1212,20 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="6">
-        <v>120</v>
-      </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6">
+        <v>120</v>
+      </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="6"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1195,17 +1238,20 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="6">
-        <v>120</v>
-      </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6">
+        <v>120</v>
+      </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="6"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1218,17 +1264,20 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="6">
-        <v>120</v>
-      </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6">
+        <v>120</v>
+      </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="6"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1241,17 +1290,20 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="6">
-        <v>120</v>
-      </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6">
+        <v>120</v>
+      </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="6"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1264,17 +1316,20 @@
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="6">
-        <v>120</v>
-      </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6">
+        <v>120</v>
+      </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="6"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1287,17 +1342,20 @@
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="6">
-        <v>120</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6">
+        <v>120</v>
+      </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="6"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1310,17 +1368,20 @@
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="6">
-        <v>120</v>
-      </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6">
+        <v>120</v>
+      </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="6"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -1333,17 +1394,20 @@
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="6">
-        <v>120</v>
-      </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6">
+        <v>120</v>
+      </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="6"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1356,17 +1420,20 @@
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="6">
-        <v>120</v>
-      </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6">
+        <v>120</v>
+      </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="6"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1379,17 +1446,20 @@
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="6">
-        <v>120</v>
-      </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6">
+        <v>120</v>
+      </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="6"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1402,17 +1472,20 @@
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="6">
-        <v>120</v>
-      </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6">
+        <v>120</v>
+      </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="6"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1425,17 +1498,20 @@
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="6">
-        <v>120</v>
-      </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6">
+        <v>120</v>
+      </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="6"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1448,17 +1524,20 @@
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="6">
-        <v>120</v>
-      </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6">
+        <v>120</v>
+      </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="6"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1471,17 +1550,20 @@
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="6">
-        <v>120</v>
-      </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6">
+        <v>120</v>
+      </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="6"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -1494,17 +1576,20 @@
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="6">
-        <v>120</v>
-      </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6">
+        <v>120</v>
+      </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" s="6"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -1517,17 +1602,20 @@
       <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="6">
-        <v>120</v>
-      </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6">
+        <v>120</v>
+      </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" s="6"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -1540,17 +1628,20 @@
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="6">
-        <v>120</v>
-      </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6">
+        <v>120</v>
+      </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" s="6"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
@@ -1563,1620 +1654,1730 @@
       <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="6">
-        <v>120</v>
-      </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="6">
+        <v>120</v>
+      </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" s="6"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="3"/>
       <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="6">
-        <v>120</v>
-      </c>
-      <c r="G23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="6">
+        <v>120</v>
+      </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" s="6"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="3"/>
       <c r="B24" s="6">
         <v>0</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="6">
-        <v>120</v>
-      </c>
-      <c r="G24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="6">
+        <v>120</v>
+      </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" s="6"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="3"/>
       <c r="B25" s="6">
         <v>0</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="6">
-        <v>120</v>
-      </c>
-      <c r="G25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="6">
+        <v>120</v>
+      </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" s="6"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="3"/>
       <c r="B26" s="6">
         <v>0</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="6">
-        <v>120</v>
-      </c>
-      <c r="G26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="6">
+        <v>120</v>
+      </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="6"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="3"/>
       <c r="B27" s="6">
         <v>0</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="6">
-        <v>120</v>
-      </c>
-      <c r="G27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6">
+        <v>120</v>
+      </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" s="6"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="3"/>
       <c r="B28" s="6">
         <v>0</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="6">
-        <v>120</v>
-      </c>
-      <c r="G28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="6">
+        <v>120</v>
+      </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="6"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="3"/>
       <c r="B29" s="6">
         <v>0</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="6">
-        <v>120</v>
-      </c>
-      <c r="G29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="6">
+        <v>120</v>
+      </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="6"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="3"/>
       <c r="B30" s="6">
         <v>0</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="6">
-        <v>120</v>
-      </c>
-      <c r="G30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="6">
+        <v>120</v>
+      </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="6"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="3"/>
       <c r="B31" s="6">
         <v>0</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="6">
-        <v>120</v>
-      </c>
-      <c r="G31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="6">
+        <v>120</v>
+      </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" s="6"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="3"/>
       <c r="B32" s="6">
         <v>0</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="6">
-        <v>120</v>
-      </c>
-      <c r="G32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="6">
+        <v>120</v>
+      </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" s="6"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="3"/>
       <c r="B33" s="6">
         <v>0</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="6">
-        <v>120</v>
-      </c>
-      <c r="G33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="6">
+        <v>120</v>
+      </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" s="6"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="3"/>
       <c r="B34" s="6">
         <v>0</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="6">
-        <v>120</v>
-      </c>
-      <c r="G34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="6">
+        <v>120</v>
+      </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="I34" s="6"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="3"/>
       <c r="B35" s="6">
         <v>0</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="6">
-        <v>120</v>
-      </c>
-      <c r="G35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="6">
+        <v>120</v>
+      </c>
       <c r="H35" s="6"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="I35" s="6"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="3"/>
       <c r="B36" s="6">
         <v>0</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="6">
-        <v>120</v>
-      </c>
-      <c r="G36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="6">
+        <v>120</v>
+      </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="I36" s="6"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="3"/>
       <c r="B37" s="6">
         <v>0</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="6">
-        <v>120</v>
-      </c>
-      <c r="G37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="6">
+        <v>120</v>
+      </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="I37" s="6"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="3"/>
       <c r="B38" s="6">
         <v>0</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="6">
-        <v>120</v>
-      </c>
-      <c r="G38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="6">
+        <v>120</v>
+      </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="I38" s="6"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="3"/>
       <c r="B39" s="6">
         <v>0</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="6">
-        <v>120</v>
-      </c>
-      <c r="G39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="6">
+        <v>120</v>
+      </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="I39" s="6"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="3"/>
       <c r="B40" s="6">
         <v>0</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="6">
-        <v>120</v>
-      </c>
-      <c r="G40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="6">
+        <v>120</v>
+      </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40" s="6"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="3"/>
       <c r="B41" s="6">
         <v>0</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="6">
-        <v>120</v>
-      </c>
-      <c r="G41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="6">
+        <v>120</v>
+      </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" s="6"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="3"/>
       <c r="B42" s="6">
         <v>0</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="6">
-        <v>120</v>
-      </c>
-      <c r="G42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="6">
+        <v>120</v>
+      </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="I42" s="6"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="3"/>
       <c r="B43" s="6">
         <v>0</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="6">
-        <v>120</v>
-      </c>
-      <c r="G43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="6">
+        <v>120</v>
+      </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" s="6"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="3"/>
       <c r="B44" s="6">
         <v>0</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="6">
-        <v>120</v>
-      </c>
-      <c r="G44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="6">
+        <v>120</v>
+      </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="6"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="3"/>
       <c r="B45" s="6">
         <v>0</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="6">
-        <v>120</v>
-      </c>
-      <c r="G45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="6">
+        <v>120</v>
+      </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="I45" s="6"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="3"/>
       <c r="B46" s="6">
         <v>0</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="6">
-        <v>120</v>
-      </c>
-      <c r="G46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="6">
+        <v>120</v>
+      </c>
       <c r="H46" s="6"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="6"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="3"/>
       <c r="B47" s="6">
         <v>0</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="6">
-        <v>120</v>
-      </c>
-      <c r="G47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="6">
+        <v>120</v>
+      </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="I47" s="6"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="3"/>
       <c r="B48" s="6">
         <v>0</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="6">
-        <v>120</v>
-      </c>
-      <c r="G48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="6">
+        <v>120</v>
+      </c>
       <c r="H48" s="6"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="I48" s="6"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="3"/>
       <c r="B49" s="6">
         <v>0</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="6">
-        <v>120</v>
-      </c>
-      <c r="G49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="6">
+        <v>120</v>
+      </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="I49" s="6"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="3"/>
       <c r="B50" s="6">
         <v>0</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="6">
-        <v>120</v>
-      </c>
-      <c r="G50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="6">
+        <v>120</v>
+      </c>
       <c r="H50" s="6"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="I50" s="6"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="3"/>
       <c r="B51" s="6">
         <v>0</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="6">
-        <v>120</v>
-      </c>
-      <c r="G51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="6">
+        <v>120</v>
+      </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="I51" s="6"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="3"/>
       <c r="B52" s="6">
         <v>0</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="6">
-        <v>120</v>
-      </c>
-      <c r="G52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="6">
+        <v>120</v>
+      </c>
       <c r="H52" s="6"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="I52" s="6"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="3"/>
       <c r="B53" s="6">
         <v>0</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="6">
-        <v>120</v>
-      </c>
-      <c r="G53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="6">
+        <v>120</v>
+      </c>
       <c r="H53" s="6"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="I53" s="6"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="3"/>
       <c r="B54" s="6">
         <v>0</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="6">
-        <v>120</v>
-      </c>
-      <c r="G54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="6">
+        <v>120</v>
+      </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="I54" s="6"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="3"/>
       <c r="B55" s="6">
         <v>0</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="6">
-        <v>120</v>
-      </c>
-      <c r="G55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="6">
+        <v>120</v>
+      </c>
       <c r="H55" s="6"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="I55" s="6"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="3"/>
       <c r="B56" s="6">
         <v>0</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="6">
-        <v>120</v>
-      </c>
-      <c r="G56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="6">
+        <v>120</v>
+      </c>
       <c r="H56" s="6"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="I56" s="6"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="3"/>
       <c r="B57" s="6">
         <v>0</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="6">
-        <v>120</v>
-      </c>
-      <c r="G57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="6">
+        <v>120</v>
+      </c>
       <c r="H57" s="6"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="I57" s="6"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="3"/>
       <c r="B58" s="6">
         <v>0</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="6">
-        <v>120</v>
-      </c>
-      <c r="G58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="6">
+        <v>120</v>
+      </c>
       <c r="H58" s="6"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="I58" s="6"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="3"/>
       <c r="B59" s="6">
         <v>0</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="6">
-        <v>120</v>
-      </c>
-      <c r="G59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="6">
+        <v>120</v>
+      </c>
       <c r="H59" s="6"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="I59" s="6"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="3"/>
       <c r="B60" s="6">
         <v>0</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="6">
-        <v>120</v>
-      </c>
-      <c r="G60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="6">
+        <v>120</v>
+      </c>
       <c r="H60" s="6"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="I60" s="6"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="3"/>
       <c r="B61" s="6">
         <v>0</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="6">
-        <v>120</v>
-      </c>
-      <c r="G61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="6">
+        <v>120</v>
+      </c>
       <c r="H61" s="6"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="I61" s="6"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="3"/>
       <c r="B62" s="6">
         <v>0</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="6">
-        <v>120</v>
-      </c>
-      <c r="G62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="6">
+        <v>120</v>
+      </c>
       <c r="H62" s="6"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="I62" s="6"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="3"/>
       <c r="B63" s="6">
         <v>0</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="6">
-        <v>120</v>
-      </c>
-      <c r="G63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="6">
+        <v>120</v>
+      </c>
       <c r="H63" s="6"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="I63" s="6"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="3"/>
       <c r="B64" s="6">
         <v>0</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="6">
-        <v>120</v>
-      </c>
-      <c r="G64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="6">
+        <v>120</v>
+      </c>
       <c r="H64" s="6"/>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="I64" s="6"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="3"/>
       <c r="B65" s="6">
         <v>0</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="6">
-        <v>120</v>
-      </c>
-      <c r="G65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="6">
+        <v>120</v>
+      </c>
       <c r="H65" s="6"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="I65" s="6"/>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="3"/>
       <c r="B66" s="6">
         <v>0</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="6">
-        <v>120</v>
-      </c>
-      <c r="G66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="6">
+        <v>120</v>
+      </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="I66" s="6"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="3"/>
       <c r="B67" s="6">
         <v>0</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="6">
-        <v>120</v>
-      </c>
-      <c r="G67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="6">
+        <v>120</v>
+      </c>
       <c r="H67" s="6"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="I67" s="6"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="3"/>
       <c r="B68" s="6">
         <v>0</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="6">
-        <v>120</v>
-      </c>
-      <c r="G68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="6">
+        <v>120</v>
+      </c>
       <c r="H68" s="6"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="I68" s="6"/>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="3"/>
       <c r="B69" s="6">
         <v>0</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="6">
-        <v>120</v>
-      </c>
-      <c r="G69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="6">
+        <v>120</v>
+      </c>
       <c r="H69" s="6"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="I69" s="6"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="3"/>
       <c r="B70" s="6">
         <v>0</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="6">
-        <v>120</v>
-      </c>
-      <c r="G70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="6">
+        <v>120</v>
+      </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="I70" s="6"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="3"/>
       <c r="B71" s="6">
         <v>0</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="6">
-        <v>120</v>
-      </c>
-      <c r="G71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="6">
+        <v>120</v>
+      </c>
       <c r="H71" s="6"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="I71" s="6"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="3"/>
       <c r="B72" s="6">
         <v>0</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="6">
-        <v>120</v>
-      </c>
-      <c r="G72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="6">
+        <v>120</v>
+      </c>
       <c r="H72" s="6"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="I72" s="6"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="3"/>
       <c r="B73" s="6">
         <v>0</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="6">
-        <v>120</v>
-      </c>
-      <c r="G73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="6">
+        <v>120</v>
+      </c>
       <c r="H73" s="6"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="I73" s="6"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="3"/>
       <c r="B74" s="6">
         <v>0</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="6">
-        <v>120</v>
-      </c>
-      <c r="G74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="6">
+        <v>120</v>
+      </c>
       <c r="H74" s="6"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="I74" s="6"/>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="3"/>
       <c r="B75" s="6">
         <v>0</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="6">
-        <v>120</v>
-      </c>
-      <c r="G75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="6">
+        <v>120</v>
+      </c>
       <c r="H75" s="6"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="I75" s="6"/>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="3"/>
       <c r="B76" s="6">
         <v>0</v>
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="6">
-        <v>120</v>
-      </c>
-      <c r="G76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="6">
+        <v>120</v>
+      </c>
       <c r="H76" s="6"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="I76" s="6"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="3"/>
       <c r="B77" s="6">
         <v>0</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="6">
-        <v>120</v>
-      </c>
-      <c r="G77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="6">
+        <v>120</v>
+      </c>
       <c r="H77" s="6"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="I77" s="6"/>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="3"/>
       <c r="B78" s="6">
         <v>0</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="6">
-        <v>120</v>
-      </c>
-      <c r="G78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="6">
+        <v>120</v>
+      </c>
       <c r="H78" s="6"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="I78" s="6"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="3"/>
       <c r="B79" s="6">
         <v>0</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="6">
-        <v>120</v>
-      </c>
-      <c r="G79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="6">
+        <v>120</v>
+      </c>
       <c r="H79" s="6"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="I79" s="6"/>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="3"/>
       <c r="B80" s="6">
         <v>0</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="6">
-        <v>120</v>
-      </c>
-      <c r="G80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="6">
+        <v>120</v>
+      </c>
       <c r="H80" s="6"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="I80" s="6"/>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="3"/>
       <c r="B81" s="6">
         <v>0</v>
       </c>
       <c r="C81" s="19"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="6">
-        <v>120</v>
-      </c>
-      <c r="G81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="6">
+        <v>120</v>
+      </c>
       <c r="H81" s="6"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="I81" s="6"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="3"/>
       <c r="B82" s="6">
         <v>0</v>
       </c>
       <c r="C82" s="19"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="6">
-        <v>120</v>
-      </c>
-      <c r="G82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="6">
+        <v>120</v>
+      </c>
       <c r="H82" s="6"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="I82" s="6"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="3"/>
       <c r="B83" s="6">
         <v>0</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="6">
-        <v>120</v>
-      </c>
-      <c r="G83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="6">
+        <v>120</v>
+      </c>
       <c r="H83" s="6"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="I83" s="6"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="3"/>
       <c r="B84" s="6">
         <v>0</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="6">
-        <v>120</v>
-      </c>
-      <c r="G84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="6">
+        <v>120</v>
+      </c>
       <c r="H84" s="6"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="I84" s="6"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="3"/>
       <c r="B85" s="6">
         <v>0</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="6">
-        <v>120</v>
-      </c>
-      <c r="G85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="6">
+        <v>120</v>
+      </c>
       <c r="H85" s="6"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="I85" s="6"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="3"/>
       <c r="B86" s="6">
         <v>0</v>
       </c>
       <c r="C86" s="19"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="6">
-        <v>120</v>
-      </c>
-      <c r="G86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="6">
+        <v>120</v>
+      </c>
       <c r="H86" s="6"/>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="I86" s="6"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="3"/>
       <c r="B87" s="6">
         <v>0</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="6">
-        <v>120</v>
-      </c>
-      <c r="G87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="6">
+        <v>120</v>
+      </c>
       <c r="H87" s="6"/>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="I87" s="6"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="3"/>
       <c r="B88" s="6">
         <v>0</v>
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="6">
-        <v>120</v>
-      </c>
-      <c r="G88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="6">
+        <v>120</v>
+      </c>
       <c r="H88" s="6"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="I88" s="6"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="3"/>
       <c r="B89" s="6">
         <v>0</v>
       </c>
       <c r="C89" s="19"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="6">
-        <v>120</v>
-      </c>
-      <c r="G89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="6">
+        <v>120</v>
+      </c>
       <c r="H89" s="6"/>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="I89" s="6"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="3"/>
       <c r="B90" s="6">
         <v>0</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="6">
-        <v>120</v>
-      </c>
-      <c r="G90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="6">
+        <v>120</v>
+      </c>
       <c r="H90" s="6"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="I90" s="6"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="3"/>
       <c r="B91" s="6">
         <v>0</v>
       </c>
       <c r="C91" s="19"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="6">
-        <v>120</v>
-      </c>
-      <c r="G91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="6">
+        <v>120</v>
+      </c>
       <c r="H91" s="6"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="I91" s="6"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="3"/>
       <c r="B92" s="6">
         <v>0</v>
       </c>
       <c r="C92" s="19"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="6">
-        <v>120</v>
-      </c>
-      <c r="G92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="6">
+        <v>120</v>
+      </c>
       <c r="H92" s="6"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="I92" s="6"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="3"/>
       <c r="B93" s="6">
         <v>0</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="6">
-        <v>120</v>
-      </c>
-      <c r="G93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="6">
+        <v>120</v>
+      </c>
       <c r="H93" s="6"/>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="I93" s="6"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="3"/>
       <c r="B94" s="6">
         <v>0</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="6">
-        <v>120</v>
-      </c>
-      <c r="G94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="6">
+        <v>120</v>
+      </c>
       <c r="H94" s="6"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="I94" s="6"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="3"/>
       <c r="B95" s="6">
         <v>0</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="6">
-        <v>120</v>
-      </c>
-      <c r="G95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="6">
+        <v>120</v>
+      </c>
       <c r="H95" s="6"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="I95" s="6"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="3"/>
       <c r="B96" s="6">
         <v>0</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="6">
-        <v>120</v>
-      </c>
-      <c r="G96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="6">
+        <v>120</v>
+      </c>
       <c r="H96" s="6"/>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="I96" s="6"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="3"/>
       <c r="B97" s="6">
         <v>0</v>
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="6">
-        <v>120</v>
-      </c>
-      <c r="G97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="6">
+        <v>120</v>
+      </c>
       <c r="H97" s="6"/>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="I97" s="6"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="3"/>
       <c r="B98" s="6">
         <v>0</v>
       </c>
       <c r="C98" s="19"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="6">
-        <v>120</v>
-      </c>
-      <c r="G98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="6">
+        <v>120</v>
+      </c>
       <c r="H98" s="6"/>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="I98" s="6"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="3"/>
       <c r="B99" s="6">
         <v>0</v>
       </c>
       <c r="C99" s="19"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="6">
-        <v>120</v>
-      </c>
-      <c r="G99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="6">
+        <v>120</v>
+      </c>
       <c r="H99" s="6"/>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="I99" s="6"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="3"/>
       <c r="B100" s="6">
         <v>0</v>
       </c>
       <c r="C100" s="19"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="6">
-        <v>120</v>
-      </c>
-      <c r="G100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="6">
+        <v>120</v>
+      </c>
       <c r="H100" s="6"/>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="I100" s="6"/>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="3"/>
       <c r="B101" s="6">
         <v>0</v>
       </c>
       <c r="C101" s="19"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="6">
-        <v>120</v>
-      </c>
-      <c r="G101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="6">
+        <v>120</v>
+      </c>
       <c r="H101" s="6"/>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="I101" s="6"/>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="3"/>
       <c r="B102" s="6">
         <v>0</v>
       </c>
       <c r="C102" s="19"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="6">
-        <v>120</v>
-      </c>
-      <c r="G102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="6">
+        <v>120</v>
+      </c>
       <c r="H102" s="6"/>
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="I102" s="6"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="3"/>
       <c r="B103" s="6">
         <v>0</v>
       </c>
       <c r="C103" s="19"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="6">
-        <v>120</v>
-      </c>
-      <c r="G103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="6">
+        <v>120</v>
+      </c>
       <c r="H103" s="6"/>
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="I103" s="6"/>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="3"/>
       <c r="B104" s="6">
         <v>0</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="6">
-        <v>120</v>
-      </c>
-      <c r="G104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="6">
+        <v>120</v>
+      </c>
       <c r="H104" s="6"/>
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="I104" s="6"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="3"/>
       <c r="B105" s="6">
         <v>0</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="6">
-        <v>120</v>
-      </c>
-      <c r="G105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="6">
+        <v>120</v>
+      </c>
       <c r="H105" s="6"/>
-      <c r="I105" s="3"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="I105" s="6"/>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="3"/>
       <c r="B106" s="6">
         <v>0</v>
       </c>
       <c r="C106" s="19"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="6">
-        <v>120</v>
-      </c>
-      <c r="G106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="6">
+        <v>120</v>
+      </c>
       <c r="H106" s="6"/>
-      <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="I106" s="6"/>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="3"/>
       <c r="B107" s="6">
         <v>0</v>
       </c>
       <c r="C107" s="19"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="6">
-        <v>120</v>
-      </c>
-      <c r="G107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="6">
+        <v>120</v>
+      </c>
       <c r="H107" s="6"/>
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="I107" s="6"/>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="3"/>
       <c r="B108" s="6">
         <v>0</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="6">
-        <v>120</v>
-      </c>
-      <c r="G108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="6">
+        <v>120</v>
+      </c>
       <c r="H108" s="6"/>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="I108" s="6"/>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="3"/>
       <c r="B109" s="6">
         <v>0</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="6">
-        <v>120</v>
-      </c>
-      <c r="G109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="6">
+        <v>120</v>
+      </c>
       <c r="H109" s="6"/>
-      <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="I109" s="6"/>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="3"/>
       <c r="B110" s="6">
         <v>0</v>
       </c>
       <c r="C110" s="19"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="6">
-        <v>120</v>
-      </c>
-      <c r="G110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="6">
+        <v>120</v>
+      </c>
       <c r="H110" s="6"/>
-      <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="I110" s="6"/>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="3"/>
       <c r="B111" s="6">
         <v>0</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="6">
-        <v>120</v>
-      </c>
-      <c r="G111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="6">
+        <v>120</v>
+      </c>
       <c r="H111" s="6"/>
-      <c r="I111" s="3"/>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="I111" s="6"/>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="3"/>
       <c r="B112" s="6">
         <v>0</v>
       </c>
       <c r="C112" s="19"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="6">
-        <v>120</v>
-      </c>
-      <c r="G112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="6">
+        <v>120</v>
+      </c>
       <c r="H112" s="6"/>
-      <c r="I112" s="3"/>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="I112" s="6"/>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="3"/>
       <c r="B113" s="6">
         <v>0</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="6">
-        <v>120</v>
-      </c>
-      <c r="G113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="6">
+        <v>120</v>
+      </c>
       <c r="H113" s="6"/>
-      <c r="I113" s="3"/>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="I113" s="6"/>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="3"/>
       <c r="B114" s="6">
         <v>0</v>
       </c>
       <c r="C114" s="19"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="6">
-        <v>120</v>
-      </c>
-      <c r="G114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="6">
+        <v>120</v>
+      </c>
       <c r="H114" s="6"/>
-      <c r="I114" s="3"/>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="I114" s="6"/>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="3"/>
       <c r="B115" s="6">
         <v>0</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="6">
-        <v>120</v>
-      </c>
-      <c r="G115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="6">
+        <v>120</v>
+      </c>
       <c r="H115" s="6"/>
-      <c r="I115" s="3"/>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="I115" s="6"/>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="3"/>
       <c r="B116" s="6">
         <v>0</v>
       </c>
       <c r="C116" s="19"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="6">
-        <v>120</v>
-      </c>
-      <c r="G116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="6">
+        <v>120</v>
+      </c>
       <c r="H116" s="6"/>
-      <c r="I116" s="3"/>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="I116" s="6"/>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="3"/>
       <c r="B117" s="6">
         <v>0</v>
       </c>
       <c r="C117" s="19"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="6">
-        <v>120</v>
-      </c>
-      <c r="G117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="6">
+        <v>120</v>
+      </c>
       <c r="H117" s="6"/>
-      <c r="I117" s="3"/>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="I117" s="6"/>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="3"/>
       <c r="B118" s="6">
         <v>0</v>
       </c>
       <c r="C118" s="19"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="6">
-        <v>120</v>
-      </c>
-      <c r="G118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="6">
+        <v>120</v>
+      </c>
       <c r="H118" s="6"/>
-      <c r="I118" s="3"/>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="I118" s="6"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="3"/>
       <c r="B119" s="6">
         <v>0</v>
       </c>
       <c r="C119" s="19"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="6">
-        <v>120</v>
-      </c>
-      <c r="G119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="6">
+        <v>120</v>
+      </c>
       <c r="H119" s="6"/>
-      <c r="I119" s="3"/>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="I119" s="6"/>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="3"/>
       <c r="B120" s="6">
         <v>0</v>
       </c>
       <c r="C120" s="19"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="6">
-        <v>120</v>
-      </c>
-      <c r="G120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="6">
+        <v>120</v>
+      </c>
       <c r="H120" s="6"/>
-      <c r="I120" s="3"/>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="I120" s="6"/>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="3"/>
       <c r="B121" s="6">
         <v>0</v>
       </c>
       <c r="C121" s="19"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="6">
-        <v>120</v>
-      </c>
-      <c r="G121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="6">
+        <v>120</v>
+      </c>
       <c r="H121" s="6"/>
-      <c r="I121" s="3"/>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="I121" s="6"/>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="3"/>
       <c r="B122" s="6">
         <v>0</v>
       </c>
       <c r="C122" s="19"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="6">
-        <v>120</v>
-      </c>
-      <c r="G122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="6">
+        <v>120</v>
+      </c>
       <c r="H122" s="6"/>
-      <c r="I122" s="3"/>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="I122" s="6"/>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="3"/>
       <c r="B123" s="6">
         <v>0</v>
       </c>
       <c r="C123" s="19"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="6">
-        <v>120</v>
-      </c>
-      <c r="G123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="6">
+        <v>120</v>
+      </c>
       <c r="H123" s="6"/>
-      <c r="I123" s="3"/>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="I123" s="6"/>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="3"/>
       <c r="B124" s="6">
         <v>0</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="6">
-        <v>120</v>
-      </c>
-      <c r="G124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="6">
+        <v>120</v>
+      </c>
       <c r="H124" s="6"/>
-      <c r="I124" s="3"/>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="I124" s="6"/>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="3"/>
       <c r="B125" s="6">
         <v>0</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="6">
-        <v>120</v>
-      </c>
-      <c r="G125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="6">
+        <v>120</v>
+      </c>
       <c r="H125" s="6"/>
-      <c r="I125" s="3"/>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="I125" s="6"/>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="3"/>
       <c r="B126" s="6">
         <v>0</v>
       </c>
       <c r="C126" s="19"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="6">
-        <v>120</v>
-      </c>
-      <c r="G126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="6">
+        <v>120</v>
+      </c>
       <c r="H126" s="6"/>
-      <c r="I126" s="3"/>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="I126" s="6"/>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="3"/>
       <c r="B127" s="6">
         <v>0</v>
       </c>
       <c r="C127" s="19"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="6">
-        <v>120</v>
-      </c>
-      <c r="G127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="6">
+        <v>120</v>
+      </c>
       <c r="H127" s="6"/>
-      <c r="I127" s="3"/>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="I127" s="6"/>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="3"/>
       <c r="B128" s="6">
         <v>0</v>
       </c>
       <c r="C128" s="19"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="6">
-        <v>120</v>
-      </c>
-      <c r="G128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="6">
+        <v>120</v>
+      </c>
       <c r="H128" s="6"/>
-      <c r="I128" s="3"/>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="I128" s="6"/>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="3"/>
       <c r="B129" s="6">
         <v>0</v>
       </c>
       <c r="C129" s="19"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="6">
-        <v>120</v>
-      </c>
-      <c r="G129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6">
+        <v>120</v>
+      </c>
       <c r="H129" s="6"/>
-      <c r="I129" s="3"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3184,11 +3385,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G2:H129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F2:F129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G129">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3198,18 +3399,24 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>F2:F129</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D129</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E129</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3222,7 +3429,7 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3230,103 +3437,120 @@
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" customHeight="1">
+    <row r="1" spans="1:3" ht="23.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="10"/>
       <c r="B2" s="12"/>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
         <v>47</v>
       </c>

--- a/Template/Excel/Example.xlsx
+++ b/Template/Excel/Example.xlsx
@@ -10,9 +10,6 @@
     <sheet name="VHG Mono (Main)" sheetId="1" r:id="rId1"/>
     <sheet name="DO NOT MODIFY!" sheetId="5" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="166">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -96,9 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>----</t>
-  </si>
-  <si>
     <t>Octave</t>
   </si>
   <si>
@@ -548,6 +542,18 @@
   </si>
   <si>
     <t>Group</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIDI Note Off</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -774,21 +780,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sample"/>
-      <sheetName val="DO NOT MODIFY!"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1084,7 +1075,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1113,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>1</v>
@@ -1133,29 +1124,37 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1164,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="6">
         <v>120</v>
@@ -1175,13 +1174,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1190,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="6">
         <v>120</v>
@@ -1201,13 +1200,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1216,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -1227,13 +1226,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1242,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -1253,13 +1252,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -1268,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -1279,13 +1278,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1294,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -1305,13 +1304,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1320,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="6">
         <v>120</v>
@@ -1331,13 +1330,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -1346,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="6">
         <v>120</v>
@@ -1357,13 +1356,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -1372,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="6">
         <v>120</v>
@@ -1383,13 +1382,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -1398,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="6">
         <v>120</v>
@@ -1409,13 +1408,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -1424,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="6">
         <v>120</v>
@@ -1435,13 +1434,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -1450,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="6">
         <v>120</v>
@@ -1461,13 +1460,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -1476,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="6">
         <v>120</v>
@@ -1487,13 +1486,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
@@ -1502,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="6">
         <v>120</v>
@@ -1513,13 +1512,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -1528,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="6">
         <v>120</v>
@@ -1539,13 +1538,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -1554,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="6">
         <v>120</v>
@@ -1565,13 +1564,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -1580,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="6">
         <v>120</v>
@@ -1591,13 +1590,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -1606,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="6">
         <v>120</v>
@@ -1617,13 +1616,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -1632,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="6">
         <v>120</v>
@@ -1643,13 +1642,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
@@ -1658,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" s="6">
         <v>120</v>
@@ -3399,24 +3398,42 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F3:F129</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D3:D129</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E3:E129</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]DO NOT MODIFY!'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]DO NOT MODIFY!'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
+          <x14:formula1>
+            <xm:f>'[1]DO NOT MODIFY!'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3448,7 +3465,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3458,7 +3475,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>4</v>
@@ -3469,7 +3486,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>5</v>
@@ -3480,7 +3497,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="21">
@@ -3489,7 +3506,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="21">
@@ -3498,745 +3515,745 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="8"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="8"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="8"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="8"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" s="8"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" s="8"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="8"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="8"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B63" s="8"/>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" s="8"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B65" s="8"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B66" s="8"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" s="8"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B68" s="8"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B69" s="8"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70" s="8"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B71" s="8"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B72" s="8"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73" s="8"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B74" s="8"/>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" s="8"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B77" s="8"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" s="8"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B79" s="8"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80" s="8"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B81" s="8"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B82" s="8"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" s="8"/>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" s="8"/>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85" s="8"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B86" s="8"/>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B87" s="8"/>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B88" s="8"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B89" s="8"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90" s="8"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B91" s="8"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B92" s="8"/>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B93" s="8"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B94" s="8"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B95" s="8"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B96" s="8"/>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B97" s="8"/>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B98" s="8"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99" s="8"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B100" s="8"/>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" s="8"/>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B102" s="8"/>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B103" s="8"/>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B104" s="8"/>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105" s="8"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B106" s="8"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B107" s="8"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B108" s="8"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B109" s="8"/>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B110" s="8"/>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B111" s="8"/>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B112" s="8"/>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B113" s="8"/>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B114" s="8"/>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B115" s="8"/>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B116" s="8"/>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B117" s="8"/>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B118" s="8"/>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B119" s="8"/>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B120" s="8"/>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B121" s="8"/>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B122" s="8"/>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B123" s="8"/>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B124" s="8"/>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B125" s="8"/>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B126" s="8"/>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B127" s="8"/>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B128" s="8"/>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B129" s="8"/>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
